--- a/biology/Médecine/Muscle_grand_glutéal/Muscle_grand_glutéal.xlsx
+++ b/biology/Médecine/Muscle_grand_glutéal/Muscle_grand_glutéal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand fessier
 Le muscle grand glutéal (anciennement muscle grand fessier) est un muscle du membre inférieur. Il fait partie des muscles fessiers superficiels avec les muscles moyen glutéal, petit glutéal et tenseur du fascia lata. C'est le plus superficiel de ces muscles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand glutéal est un épais muscle quadrilatère reliant l'os coxal, le sacrum et le coccyx au fémur et au tractus ilio-tibial. 
-Il est considéré comme le muscle le plus puissant du corps humain[1].
+Il est considéré comme le muscle le plus puissant du corps humain.
 Il donne le relief à la région glutéale.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand glutéal est composé de deux faisceaux : un superficiel et un profond.
 Le faisceau superficiel se fixe au niveau de l'ilium sur :
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les deux faisceaux convergent vers le bas, en dehors et en avant.
 Il existe trois bourses sur sa face inférieure :
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faisceau superficiel se termine sur l'aponévrose du muscle moyen glutéal et sur le bord dorsal du tractus ilio-tibial.
 Le faisceau profond se termine sur la tubérosité glutéale du fémur, qui poursuit la lèvre latérale de la ligne âpre du fémur après trifurcation, la partie supérieure de la ligne âpre.
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'innervation du muscle grand fessier est assurée par le nerf glutéal inférieur, branche du plexus sacral.
 </t>
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +705,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand fessier est vascularisé par les artères fessières supérieure et inférieure.
 </t>
@@ -696,7 +720,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -714,7 +738,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Mis en action, le muscle grand glutéal est extenseur de la cuisse sur le bassin et rotateur latéral de la cuisse.
 Il est donc destiné principalement à la station debout, à la marche et à la course.
@@ -731,7 +757,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -749,9 +775,11 @@
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grand glutéal intervient comme muscle moteur dans l'exercice du soulevé de terre[2]. Il est également moteur dans le mouvement de flexion sur jambes (squat)[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand glutéal intervient comme muscle moteur dans l'exercice du soulevé de terre. Il est également moteur dans le mouvement de flexion sur jambes (squat).
 </t>
         </is>
       </c>
@@ -762,7 +790,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Muscle_grand_glut%C3%A9al</t>
+          <t>Muscle_grand_glutéal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,7 +808,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'il a comme fonction essentielle la propulsion chez le chimpanzé, il est chez l'homme un important stabilisateur pour la bipédie, qui implique à tout moment d'avoir à reporter le poids du corps sur une seule jambe sans s'effondrer.
 </t>
